--- a/StructureDefinition-DiagnosticReport-adultcheck.xlsx
+++ b/StructureDefinition-DiagnosticReport-adultcheck.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Polly Peng</t>
+    <t>大世科 tsti</t>
   </si>
   <si>
     <t>Contact</t>
@@ -149,6 +149,10 @@
     <t>這是為了捕捉單一的報告資訊，不適合用於顯示涵蓋多個報告的摘要資訊。例如：此resource沒有為實驗室累積報告格式設計，也沒有為排序的詳細結構化報告設計。</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -244,7 +248,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>人類語言；鼓勵使用[CommonLanguages](http://hl7.org/fhir/R4/valueset-languages.html)代碼表中的代碼，但不強制一定要使用此代碼表，你也可使用其他代碼表的代碼或單純以文字表示。</t>
+    <t>人類語言；鼓勵使用[CommonLanguages](http://hl7.org/fhir/R4/valueset-languages.html)值集中的代碼，但不強制一定要使用此值集，你也可使用其他值集的代碼或單純以文字表示。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -595,7 +599,7 @@
     <t>需要明確說明符號定義的來源</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/CodeSystem/v2-0203</t>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -646,7 +650,7 @@
     <t>需要參照系統中的一個特定代碼</t>
   </si>
   <si>
-    <t>HOI</t>
+    <t>PRN</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -977,7 +981,7 @@
     <t>final</t>
   </si>
   <si>
-    <t>診斷報告狀態；應填入[DiagnosticReportStatus](http://hl7.org/fhir/R4/valueset-diagnostic-report-status.html)代碼表中的其中一個代碼</t>
+    <t>診斷報告狀態；應填入[DiagnosticReportStatus](http://hl7.org/fhir/R4/valueset-diagnostic-report-status.html)值集中的其中一個代碼</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
@@ -1009,6 +1013,85 @@
   </si>
   <si>
     <t>允許使用各種分類方案的多個類別。精細度由值集中的類別概念來定義。可使用DiagnosticReport.code中的metadata和（或）專門術語層次結構進行更細微的過濾。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>可參考[DiagnosticServiceSectionCodes](http://hl7.org/fhir/R4/valueset-diagnostic-service-sections.html)值集，但此值集只是針對這個欄位的一個可能值的範例，不預期也不鼓勵使用者一定要使用此值集的代碼。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0074</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.version</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.code</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.display</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.text</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:DiagnosticServiceSectionCodes</t>
+  </si>
+  <si>
+    <t>DiagnosticServiceSectionCodes</t>
+  </si>
+  <si>
+    <t>概念（Concept）— 參照一個專門術語或只是文字表述</t>
+  </si>
+  <si>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1019,55 +1102,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>可參考[DiagnosticServiceSectionCodes](http://hl7.org/fhir/R4/valueset-diagnostic-service-sections.html)代碼表，但此代碼表只是針對這個欄位的一個可能值的示例，不預期也不鼓勵使用者一定要使用此代碼表的代碼。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.system</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0074</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.version</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.code</t>
-  </si>
-  <si>
-    <t>LAB</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.display</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.text</t>
+    <t>Codes for diagnostic service sections.</t>
   </si>
   <si>
     <t>DiagnosticReport.code</t>
@@ -1083,10 +1118,7 @@
     <t>描述該診斷報告的代碼或名稱</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>鼓勵使用[LOINCDiagnosticReportCodes](http://hl7.org/fhir/R4/valueset-report-codes.html)代碼表中的代碼， 但不強制一定要使用此代碼表，你也可使用其他代碼表的代碼或單純以文字表示。</t>
+    <t>鼓勵使用[LOINCDiagnosticReportCodes](http://hl7.org/fhir/R4/valueset-report-codes.html)值集中的代碼，但不強制一定要使用此值集，你也可使用其他值集的代碼或單純以文字表示。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/report-codes</t>
@@ -1114,7 +1146,7 @@
     <t>LOINC®為Regenstrief Institute, Inc.維護的檢驗事件描述代碼，可免費使用，可優先選用此代碼。</t>
   </si>
   <si>
-    <t>應填入[LOINC實驗室檢驗檢查值集](ValueSet-loinc-observation-code.html)代碼表中的其中一個代碼。</t>
+    <t>應填入[LOINC實驗室檢驗檢查值集](https://twcore.mohw.gov.tw/ig/twcore/ValueSet-loinc-observation-code.html)值集中的其中一個代碼。</t>
   </si>
   <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/loinc-observation-code</t>
@@ -1174,7 +1206,7 @@
     <t>此為中央健康保險署(NHI)維護之醫療服務給付項目-檢驗相關代碼，主要針對申報使用，更新頻率相對頻繁，可免費使用，可依情境選用此代碼。</t>
   </si>
   <si>
-    <t>應填入[臺灣醫療服務給付項目-檢驗值集](ValueSet-laboratory-category-tw.html)代碼表中的其中一個代碼。</t>
+    <t>應填入[臺灣醫療服務給付項目-檢驗值集](https://twcore.mohw.gov.tw/ig/twcore/ValueSet-laboratory-category-tw.html)值集中的其中一個代碼。</t>
   </si>
   <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/laboratory-category-tw</t>
@@ -1572,7 +1604,7 @@
     <t>代表診斷報告的摘要結論（解釋／臆斷）的一個或多個代碼</t>
   </si>
   <si>
-    <t>可參考[SNOMEDCTClinicalFindings](http://hl7.org/fhir/R4/valueset-clinical-findings.html)代碼表，但此代碼表只是針對這個欄位的一個可能值的示例，不預期也不鼓勵使用者一定要使用此代碼表的代碼。</t>
+    <t>可參考[SNOMEDCTClinicalFindings](http://hl7.org/fhir/R4/valueset-clinical-findings.html)值集，但此值集只是針對這個欄位的一個可能值的範例，不預期也不鼓勵使用者一定要使用此值集的代碼。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -1909,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1920,7 +1952,7 @@
   <cols>
     <col min="1" max="1" width="69.09765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.08984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1940,7 +1972,7 @@
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="9.60546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="147.74609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="147.24609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.9296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="24.46484375" customWidth="true" bestFit="true"/>
@@ -2057,16 +2089,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -2074,10 +2106,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2088,7 +2120,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2097,19 +2129,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2159,13 +2191,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2188,10 +2220,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2202,7 +2234,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2211,16 +2243,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2271,19 +2303,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2300,10 +2332,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2314,28 +2346,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2385,19 +2417,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2414,10 +2446,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2428,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2440,16 +2472,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2463,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>38</v>
@@ -2475,13 +2507,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2499,19 +2531,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2528,24 +2560,24 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>38</v>
@@ -2554,16 +2586,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2613,19 +2645,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2634,7 +2666,7 @@
         <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -2642,14 +2674,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2668,16 +2700,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2727,7 +2759,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2748,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2756,10 +2788,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2782,16 +2814,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2841,7 +2873,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2853,7 +2885,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2870,10 +2902,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2890,25 +2922,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2957,7 +2989,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2969,7 +3001,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2986,45 +3018,45 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3061,17 +3093,17 @@
         <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3083,64 +3115,64 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -3189,7 +3221,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3201,27 +3233,27 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3232,7 +3264,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3244,13 +3276,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3301,13 +3333,13 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
@@ -3322,7 +3354,7 @@
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3330,10 +3362,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3356,13 +3388,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3401,19 +3433,19 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3425,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3442,10 +3474,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3456,31 +3488,31 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3490,7 +3522,7 @@
         <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>38</v>
@@ -3505,13 +3537,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3529,28 +3561,28 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3558,10 +3590,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3569,13 +3601,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
@@ -3584,19 +3616,19 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3621,13 +3653,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3645,28 +3677,28 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3674,10 +3706,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3688,7 +3720,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3700,13 +3732,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3757,13 +3789,13 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
@@ -3778,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -3786,10 +3818,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3812,13 +3844,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3857,19 +3889,19 @@
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3881,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3898,10 +3930,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3915,7 +3947,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>38</v>
@@ -3924,19 +3956,19 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3985,7 +4017,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3994,19 +4026,19 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -4014,10 +4046,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4028,7 +4060,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4040,13 +4072,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4097,13 +4129,13 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
@@ -4118,7 +4150,7 @@
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -4126,10 +4158,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4152,16 +4184,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4199,19 +4231,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4223,7 +4255,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -4240,10 +4272,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4251,34 +4283,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4288,7 +4320,7 @@
         <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>38</v>
@@ -4327,28 +4359,28 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4356,10 +4388,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4370,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4379,19 +4411,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4441,28 +4473,28 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>38</v>
@@ -4470,10 +4502,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4481,32 +4513,32 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4516,7 +4548,7 @@
         <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>38</v>
@@ -4555,28 +4587,28 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -4584,10 +4616,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4598,29 +4630,29 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4669,28 +4701,28 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4698,10 +4730,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4712,7 +4744,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4721,22 +4753,22 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4785,28 +4817,28 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>38</v>
@@ -4814,10 +4846,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4828,31 +4860,31 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4901,28 +4933,28 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4930,10 +4962,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4941,34 +4973,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4978,10 +5010,10 @@
         <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>38</v>
@@ -5017,28 +5049,28 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5046,10 +5078,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5057,31 +5089,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5095,7 +5127,7 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>38</v>
@@ -5131,28 +5163,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5160,10 +5192,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5174,7 +5206,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5183,16 +5215,16 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5243,28 +5275,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -5272,10 +5304,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5286,7 +5318,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5295,19 +5327,19 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5357,28 +5389,28 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5386,47 +5418,47 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5475,7 +5507,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5487,27 +5519,27 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5518,7 +5550,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5530,13 +5562,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5587,13 +5619,13 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
@@ -5608,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5616,10 +5648,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5642,13 +5674,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5687,19 +5719,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5711,7 +5743,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5728,10 +5760,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5742,31 +5774,31 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5776,7 +5808,7 @@
         <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>38</v>
@@ -5791,13 +5823,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5815,28 +5847,28 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5844,10 +5876,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5855,13 +5887,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
@@ -5870,19 +5902,19 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5907,13 +5939,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5931,28 +5963,28 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5960,10 +5992,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5974,7 +6006,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5986,13 +6018,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6043,13 +6075,13 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
@@ -6064,7 +6096,7 @@
         <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6072,10 +6104,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6098,13 +6130,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6143,19 +6175,19 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6167,7 +6199,7 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6184,10 +6216,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6201,7 +6233,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
@@ -6210,19 +6242,19 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6271,7 +6303,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6280,19 +6312,19 @@
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6300,10 +6332,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6314,7 +6346,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6326,13 +6358,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6383,13 +6415,13 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
@@ -6404,7 +6436,7 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6412,10 +6444,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6438,16 +6470,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6485,19 +6517,19 @@
         <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6509,7 +6541,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6526,10 +6558,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6537,34 +6569,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6574,7 +6606,7 @@
         <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>38</v>
@@ -6613,28 +6645,28 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6642,10 +6674,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6656,7 +6688,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6665,19 +6697,19 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6727,28 +6759,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6756,10 +6788,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6767,32 +6799,32 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6802,7 +6834,7 @@
         <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>38</v>
@@ -6841,28 +6873,28 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6870,10 +6902,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6884,29 +6916,29 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6955,28 +6987,28 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6984,10 +7016,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6998,7 +7030,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7007,22 +7039,22 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7071,28 +7103,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7100,10 +7132,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7114,31 +7146,31 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7187,28 +7219,28 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -7216,10 +7248,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7227,34 +7259,34 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7267,7 +7299,7 @@
         <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>38</v>
@@ -7303,28 +7335,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -7332,10 +7364,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7343,31 +7375,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7381,7 +7413,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -7417,28 +7449,28 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7446,10 +7478,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7460,7 +7492,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7469,16 +7501,16 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7529,28 +7561,28 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7558,10 +7590,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7572,7 +7604,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7581,19 +7613,19 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7643,28 +7675,28 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7672,14 +7704,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7698,19 +7730,19 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7759,7 +7791,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7771,16 +7803,16 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7788,10 +7820,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7799,32 +7831,32 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7834,7 +7866,7 @@
         <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>38</v>
@@ -7849,13 +7881,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7873,71 +7905,71 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7948,7 +7980,7 @@
         <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>38</v>
@@ -7975,19 +8007,17 @@
         <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7996,30 +8026,30 @@
         <v>37</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>158</v>
+        <v>327</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>38</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8030,7 +8060,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8042,13 +8072,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8099,13 +8129,13 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
@@ -8120,7 +8150,7 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8128,10 +8158,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8154,13 +8184,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8199,19 +8229,19 @@
         <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8223,7 +8253,7 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8240,10 +8270,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8257,7 +8287,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>38</v>
@@ -8266,19 +8296,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8327,7 +8357,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8336,19 +8366,19 @@
         <v>37</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8356,10 +8386,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8370,7 +8400,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8382,13 +8412,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8439,13 +8469,13 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
@@ -8460,7 +8490,7 @@
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8468,10 +8498,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8494,16 +8524,16 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8541,19 +8571,19 @@
         <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8565,7 +8595,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8582,10 +8612,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8596,31 +8626,31 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8630,7 +8660,7 @@
         <v>38</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>38</v>
@@ -8669,28 +8699,28 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8698,10 +8728,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8712,7 +8742,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8721,19 +8751,19 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8783,28 +8813,28 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>38</v>
@@ -8812,10 +8842,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8826,29 +8856,29 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8858,7 +8888,7 @@
         <v>38</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>38</v>
@@ -8897,28 +8927,28 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8926,10 +8956,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8940,29 +8970,29 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -8972,7 +9002,7 @@
         <v>38</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>38</v>
@@ -9011,28 +9041,28 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -9040,10 +9070,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9054,7 +9084,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9063,22 +9093,22 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -9127,28 +9157,28 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -9156,10 +9186,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9170,31 +9200,31 @@
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9243,28 +9273,28 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9272,24 +9302,26 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D65" t="s" s="2">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
@@ -9298,16 +9330,16 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9318,7 +9350,7 @@
         <v>38</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>38</v>
@@ -9333,13 +9365,13 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9357,28 +9389,28 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9386,24 +9418,24 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9412,15 +9444,17 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9445,13 +9479,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9469,28 +9503,28 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>127</v>
+        <v>350</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>
@@ -9498,10 +9532,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9512,7 +9546,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9524,13 +9558,13 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9569,31 +9603,31 @@
         <v>38</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -9602,7 +9636,7 @@
         <v>38</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>38</v>
@@ -9610,10 +9644,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9627,7 +9661,7 @@
         <v>37</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>38</v>
@@ -9636,20 +9670,16 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>38</v>
       </c>
@@ -9685,17 +9715,19 @@
         <v>38</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -9704,19 +9736,19 @@
         <v>37</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>38</v>
@@ -9724,14 +9756,12 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>38</v>
       </c>
@@ -9740,10 +9770,10 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>38</v>
@@ -9752,19 +9782,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9789,31 +9819,29 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>353</v>
+        <v>38</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>354</v>
+        <v>38</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -9822,19 +9850,19 @@
         <v>37</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>38</v>
@@ -9842,12 +9870,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>38</v>
       </c>
@@ -9856,10 +9886,10 @@
         <v>36</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -9868,16 +9898,20 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
@@ -9901,13 +9935,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9925,28 +9959,28 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9954,10 +9988,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9968,7 +10002,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9980,17 +10014,15 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10027,31 +10059,31 @@
         <v>38</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -10060,7 +10092,7 @@
         <v>38</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10068,10 +10100,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10079,35 +10111,33 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>38</v>
       </c>
@@ -10116,7 +10146,7 @@
         <v>38</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>38</v>
@@ -10143,40 +10173,40 @@
         <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -10184,10 +10214,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10195,33 +10225,35 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
       </c>
@@ -10230,7 +10262,7 @@
         <v>38</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>38</v>
@@ -10269,28 +10301,28 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10298,10 +10330,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10309,33 +10341,33 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>38</v>
       </c>
@@ -10383,28 +10415,28 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10412,10 +10444,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10423,32 +10455,32 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10497,28 +10529,28 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10526,10 +10558,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10540,31 +10572,29 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -10613,28 +10643,28 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>38</v>
@@ -10642,14 +10672,12 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>38</v>
       </c>
@@ -10658,31 +10686,31 @@
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>372</v>
+        <v>218</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10707,13 +10735,13 @@
         <v>38</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>373</v>
+        <v>38</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>38</v>
@@ -10731,28 +10759,28 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
@@ -10760,12 +10788,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>38</v>
       </c>
@@ -10774,10 +10804,10 @@
         <v>36</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -10786,16 +10816,20 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>125</v>
+        <v>382</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>38</v>
       </c>
@@ -10819,13 +10853,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -10843,28 +10877,28 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>38</v>
@@ -10872,10 +10906,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10886,7 +10920,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10898,17 +10932,15 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -10945,31 +10977,31 @@
         <v>38</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
@@ -10978,7 +11010,7 @@
         <v>38</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>38</v>
@@ -10986,10 +11018,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10997,35 +11029,33 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>38</v>
       </c>
@@ -11034,7 +11064,7 @@
         <v>38</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>378</v>
+        <v>38</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>38</v>
@@ -11061,40 +11091,40 @@
         <v>38</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>38</v>
@@ -11102,10 +11132,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11113,33 +11143,35 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>38</v>
       </c>
@@ -11148,7 +11180,7 @@
         <v>38</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>38</v>
@@ -11187,28 +11219,28 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>38</v>
@@ -11216,10 +11248,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11227,33 +11259,33 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>38</v>
       </c>
@@ -11301,28 +11333,28 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>38</v>
@@ -11330,10 +11362,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11341,32 +11373,32 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11415,28 +11447,28 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>38</v>
@@ -11444,10 +11476,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11458,31 +11490,29 @@
         <v>36</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>38</v>
@@ -11531,28 +11561,28 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>38</v>
@@ -11560,10 +11590,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11574,31 +11604,31 @@
         <v>36</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
@@ -11647,28 +11677,28 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>38</v>
@@ -11676,43 +11706,45 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>385</v>
+        <v>38</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O86" t="s" s="2">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>38</v>
@@ -11761,31 +11793,31 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>384</v>
+        <v>231</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>391</v>
+        <v>232</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>392</v>
+        <v>233</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>393</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -11801,19 +11833,19 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>396</v>
@@ -11824,11 +11856,9 @@
       <c r="M87" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>38</v>
@@ -11883,68 +11913,68 @@
         <v>36</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -11981,86 +12011,86 @@
         <v>38</v>
       </c>
       <c r="AB88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AC88" s="2"/>
-      <c r="AD88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12097,86 +12127,86 @@
         <v>38</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="AC89" s="2"/>
       <c r="AD89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D90" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12225,31 +12255,31 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -12265,34 +12295,34 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>263</v>
+        <v>432</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12347,16 +12377,16 @@
         <v>36</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>436</v>
+        <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>437</v>
@@ -12381,22 +12411,22 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>442</v>
@@ -12408,7 +12438,7 @@
         <v>444</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>38</v>
@@ -12469,62 +12499,62 @@
         <v>38</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>38</v>
+        <v>451</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>447</v>
+        <v>264</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>38</v>
@@ -12573,7 +12603,7 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>36</v>
@@ -12585,31 +12615,31 @@
         <v>38</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>38</v>
+        <v>446</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>38</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12619,7 +12649,7 @@
         <v>37</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>38</v>
@@ -12628,19 +12658,19 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>38</v>
@@ -12689,7 +12719,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>36</v>
@@ -12701,16 +12731,16 @@
         <v>38</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>38</v>
@@ -12718,14 +12748,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>38</v>
+        <v>464</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12735,7 +12765,7 @@
         <v>37</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>38</v>
@@ -12744,18 +12774,20 @@
         <v>38</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>38</v>
       </c>
@@ -12803,7 +12835,7 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
@@ -12815,16 +12847,16 @@
         <v>38</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>38</v>
@@ -12832,14 +12864,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>469</v>
+        <v>38</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12855,21 +12887,21 @@
         <v>38</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>38</v>
       </c>
@@ -12917,7 +12949,7 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>36</v>
@@ -12929,16 +12961,16 @@
         <v>38</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>474</v>
+        <v>38</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>38</v>
@@ -12946,21 +12978,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>38</v>
+        <v>479</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>38</v>
@@ -12969,19 +13001,21 @@
         <v>38</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>124</v>
+        <v>480</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>126</v>
+        <v>482</v>
       </c>
       <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>38</v>
       </c>
@@ -13029,28 +13063,28 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>127</v>
+        <v>478</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>38</v>
+        <v>484</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>128</v>
+        <v>471</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>38</v>
@@ -13058,10 +13092,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13072,7 +13106,7 @@
         <v>36</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>38</v>
@@ -13084,17 +13118,15 @@
         <v>38</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>38</v>
@@ -13143,19 +13175,19 @@
         <v>38</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>38</v>
@@ -13164,7 +13196,7 @@
         <v>38</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>38</v>
@@ -13172,10 +13204,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13192,26 +13224,24 @@
         <v>38</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>38</v>
       </c>
@@ -13259,7 +13289,7 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>478</v>
+        <v>134</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>36</v>
@@ -13271,7 +13301,7 @@
         <v>38</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>38</v>
@@ -13288,10 +13318,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13302,31 +13332,31 @@
         <v>36</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>480</v>
+        <v>101</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>481</v>
+        <v>102</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>482</v>
+        <v>97</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>483</v>
+        <v>103</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>38</v>
@@ -13375,19 +13405,19 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>38</v>
@@ -13396,7 +13426,7 @@
         <v>38</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>484</v>
+        <v>38</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>38</v>
@@ -13404,10 +13434,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13415,10 +13445,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>38</v>
@@ -13427,19 +13457,23 @@
         <v>38</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>486</v>
+        <v>125</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>38</v>
       </c>
@@ -13487,19 +13521,19 @@
         <v>38</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>38</v>
@@ -13508,7 +13542,7 @@
         <v>38</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>38</v>
@@ -13516,44 +13550,42 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>490</v>
+        <v>38</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>124</v>
+        <v>496</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>493</v>
-      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>38</v>
       </c>
@@ -13601,28 +13633,28 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>494</v>
+        <v>38</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>38</v>
@@ -13630,24 +13662,24 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>38</v>
@@ -13656,18 +13688,18 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>38</v>
       </c>
@@ -13691,52 +13723,52 @@
         <v>38</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF103" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AG103" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>157</v>
+        <v>504</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>158</v>
+        <v>505</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>38</v>
@@ -13744,10 +13776,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13770,20 +13802,18 @@
         <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>502</v>
+        <v>149</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>38</v>
       </c>
@@ -13807,13 +13837,13 @@
         <v>38</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>38</v>
+        <v>509</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>38</v>
@@ -13831,7 +13861,7 @@
         <v>38</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>36</v>
@@ -13840,26 +13870,142 @@
         <v>37</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>494</v>
+        <v>158</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="AN104" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN104">
+  <autoFilter ref="A1:AN105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13869,7 +14015,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-DiagnosticReport-adultcheck.xlsx
+++ b/StructureDefinition-DiagnosticReport-adultcheck.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -390,22 +390,22 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber</t>
-  </si>
-  <si>
-    <t>hospitalNumber</t>
-  </si>
-  <si>
-    <t>適用所屬機構之醫事機構代碼</t>
-  </si>
-  <si>
-    <t>適用於所屬機構之醫事機構代碼</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>適用該就醫紀錄之就診序號</t>
+  </si>
+  <si>
+    <t>適用於該就醫紀錄之就診序號</t>
   </si>
   <si>
     <t>病人幾乎總是被指定一個特定的數值型的唯一識別碼（identifier）</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.id</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.id</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.id</t>
@@ -427,7 +427,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.extension</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.extension</t>
@@ -443,7 +443,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.use</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.use</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.use</t>
@@ -479,7 +479,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type</t>
@@ -520,7 +520,7 @@
     <t>CD</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.id</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.id</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.id</t>
@@ -529,13 +529,13 @@
     <t>resource中資料項目的唯一ID（用於內部參照），這可以是任何不含空格的字串。</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.extension</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding</t>
@@ -566,13 +566,13 @@
     <t>CV</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding.id</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.id</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding.extension</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding.extension</t>
@@ -581,7 +581,7 @@
     <t>無論使用或定義擴充的機構或管轄區，任何應用程式、專案或標準使用擴充都不背負任何污名（stigma）。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding.system</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.system</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding.system</t>
@@ -611,7 +611,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding.version</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding.version</t>
@@ -635,7 +635,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding.code</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.code</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding.code</t>
@@ -650,7 +650,7 @@
     <t>需要參照系統中的一個特定代碼</t>
   </si>
   <si>
-    <t>PRN</t>
+    <t>MRT</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -662,7 +662,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding.display</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.display</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding.display</t>
@@ -686,7 +686,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.coding.userSelected</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.userSelected</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.coding.userSelected</t>
@@ -717,7 +717,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.type.text</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.type.text</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.type.text</t>
@@ -744,14 +744,13 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.system</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.system</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.system</t>
   </si>
   <si>
-    <t>身份識別碼（identifier）的命名空間（namespace）
-例如：醫事機構代碼='https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw'</t>
+    <t>就診序號發號者/機構/單位</t>
   </si>
   <si>
     <t>建立值的命名空間－即一個描述一組值的唯一URL</t>
@@ -763,9 +762,6 @@
     <t>有許多識別碼的集合。為了進行兩個識別碼的對應，我們需要知道我們處理的是哪一組。系統指明了一個特定的唯一識別碼集。</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -778,14 +774,14 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.value</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.value</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.value</t>
   </si>
   <si>
     <t>唯一值。
-例如：所屬機構之醫事機構代碼為0123456789</t>
+例如：就診序號為0123456789</t>
   </si>
   <si>
     <t>識別碼中通常與使用者有關的部分，在系統情境內是唯一的。</t>
@@ -806,7 +802,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.period</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.period</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.period</t>
@@ -831,7 +827,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier:hospitalNumber.assigner</t>
+    <t>DiagnosticReport.identifier:medicalrecordNumber.assigner</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier.assigner</t>
@@ -857,81 +853,6 @@
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>適用該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>適用於該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.use</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.system</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.version</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.code</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.display</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.type.text</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.system</t>
-  </si>
-  <si>
-    <t>使用個醫院/機構院內代碼</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.value</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.period</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:medicalrecordNumber.assigner</t>
   </si>
   <si>
     <t>DiagnosticReport.basedOn</t>
@@ -1941,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN105"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5010,46 +4931,46 @@
         <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="T27" t="s" s="2">
+      <c r="U27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5067,10 +4988,10 @@
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5078,10 +4999,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5107,13 +5028,13 @@
         <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5127,43 +5048,43 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5181,10 +5102,10 @@
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5192,10 +5113,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5218,13 +5139,13 @@
         <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5275,7 +5196,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5293,10 +5214,10 @@
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -5304,10 +5225,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5330,16 +5251,16 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5389,7 +5310,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5407,10 +5328,10 @@
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5418,35 +5339,33 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>273</v>
@@ -5455,10 +5374,10 @@
         <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5507,7 +5426,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5522,24 +5441,24 @@
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5547,31 +5466,33 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5580,7 +5501,7 @@
         <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>38</v>
@@ -5595,13 +5516,13 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
@@ -5619,10 +5540,10 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>48</v>
@@ -5631,58 +5552,60 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5707,23 +5630,21 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
@@ -5731,7 +5652,7 @@
         <v>113</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5743,27 +5664,27 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5777,29 +5698,25 @@
         <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>38</v>
       </c>
@@ -5808,7 +5725,7 @@
         <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>38</v>
@@ -5823,13 +5740,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5847,7 +5764,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5859,16 +5776,16 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5876,10 +5793,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>148</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5887,13 +5804,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
@@ -5902,20 +5819,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>38</v>
       </c>
@@ -5939,52 +5852,52 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5992,10 +5905,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6006,10 +5919,10 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
@@ -6018,16 +5931,20 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
@@ -6075,28 +5992,28 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6104,10 +6021,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6118,7 +6035,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6130,13 +6047,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6175,31 +6092,31 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6208,7 +6125,7 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6216,10 +6133,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6233,7 +6150,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
@@ -6242,20 +6159,18 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>38</v>
       </c>
@@ -6291,19 +6206,19 @@
         <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6312,19 +6227,19 @@
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6332,10 +6247,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6349,25 +6264,29 @@
         <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
       </c>
@@ -6376,7 +6295,7 @@
         <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>38</v>
@@ -6415,7 +6334,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6427,16 +6346,16 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6444,10 +6363,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6458,7 +6377,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6467,19 +6386,19 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6517,40 +6436,40 @@
         <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>
@@ -6558,10 +6477,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6569,7 +6488,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>48</v>
@@ -6584,19 +6503,17 @@
         <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6606,7 +6523,7 @@
         <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>38</v>
@@ -6645,7 +6562,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6663,10 +6580,10 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6674,10 +6591,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6691,7 +6608,7 @@
         <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
@@ -6703,15 +6620,15 @@
         <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6720,7 +6637,7 @@
         <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>38</v>
@@ -6759,7 +6676,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6777,10 +6694,10 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6788,10 +6705,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6799,13 +6716,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -6814,17 +6731,19 @@
         <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6834,7 +6753,7 @@
         <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>38</v>
@@ -6873,7 +6792,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6891,10 +6810,10 @@
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6902,10 +6821,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6931,14 +6850,16 @@
         <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6987,7 +6908,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7005,10 +6926,10 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -7016,14 +6937,16 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7033,29 +6956,27 @@
         <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7064,7 +6985,7 @@
         <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>38</v>
@@ -7079,13 +7000,13 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
@@ -7103,16 +7024,16 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>60</v>
@@ -7121,10 +7042,10 @@
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7132,18 +7053,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>48</v>
@@ -7155,23 +7076,21 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7195,13 +7114,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7219,16 +7138,16 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>60</v>
@@ -7237,10 +7156,10 @@
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -7248,10 +7167,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7259,35 +7178,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7299,7 +7214,7 @@
         <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>38</v>
@@ -7335,7 +7250,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7347,16 +7262,16 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -7364,10 +7279,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7375,32 +7290,30 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7413,7 +7326,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -7437,40 +7350,40 @@
         <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7478,10 +7391,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7492,28 +7405,32 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7549,28 +7466,26 @@
         <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>60</v>
@@ -7579,10 +7494,10 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7590,12 +7505,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7607,27 +7524,29 @@
         <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7651,13 +7570,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7675,16 +7594,16 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>60</v>
@@ -7693,10 +7612,10 @@
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7704,21 +7623,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7730,20 +7649,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7791,28 +7706,28 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>296</v>
+        <v>128</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7820,10 +7735,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7831,33 +7746,33 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>38</v>
       </c>
@@ -7866,7 +7781,7 @@
         <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>38</v>
@@ -7881,74 +7796,74 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>316</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>49</v>
@@ -7960,18 +7875,20 @@
         <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>320</v>
+        <v>183</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
       </c>
@@ -7980,7 +7897,7 @@
         <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>38</v>
@@ -7995,35 +7912,37 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
@@ -8035,21 +7954,21 @@
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>327</v>
+        <v>189</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8069,18 +7988,20 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>125</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8129,7 +8050,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8141,16 +8062,16 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8158,10 +8079,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8169,31 +8090,33 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8229,40 +8152,40 @@
         <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8270,10 +8193,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8284,7 +8207,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>49</v>
@@ -8293,22 +8216,20 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8357,16 +8278,16 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>60</v>
@@ -8375,10 +8296,10 @@
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8386,10 +8307,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8409,19 +8330,23 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
@@ -8469,7 +8394,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8481,16 +8406,16 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8498,12 +8423,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8512,10 +8439,10 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>38</v>
@@ -8524,18 +8451,20 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8559,31 +8488,31 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8592,19 +8521,19 @@
         <v>37</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8612,10 +8541,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8629,29 +8558,25 @@
         <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8660,7 +8585,7 @@
         <v>38</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>38</v>
@@ -8699,7 +8624,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8711,16 +8636,16 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8728,10 +8653,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8742,7 +8667,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8751,19 +8676,19 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8801,40 +8726,40 @@
         <v>38</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>38</v>
@@ -8842,10 +8767,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8853,7 +8778,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>48</v>
@@ -8868,17 +8793,19 @@
         <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8888,7 +8815,7 @@
         <v>38</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>38</v>
@@ -8927,7 +8854,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8945,10 +8872,10 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8956,10 +8883,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8973,7 +8900,7 @@
         <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
@@ -8985,15 +8912,15 @@
         <v>125</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>38</v>
       </c>
@@ -9002,7 +8929,7 @@
         <v>38</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>38</v>
@@ -9041,7 +8968,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9059,10 +8986,10 @@
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -9070,10 +8997,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9081,13 +9008,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
@@ -9096,19 +9023,17 @@
         <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -9157,7 +9082,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9175,10 +9100,10 @@
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -9186,10 +9111,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9215,16 +9140,14 @@
         <v>125</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9273,7 +9196,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9291,10 +9214,10 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9302,16 +9225,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9321,27 +9242,29 @@
         <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>346</v>
+        <v>219</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
       </c>
@@ -9350,7 +9273,7 @@
         <v>38</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>38</v>
@@ -9365,13 +9288,13 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>349</v>
+        <v>38</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9389,16 +9312,16 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>60</v>
@@ -9407,10 +9330,10 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9418,18 +9341,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>48</v>
@@ -9441,21 +9364,23 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>353</v>
+        <v>228</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
       </c>
@@ -9479,13 +9404,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>354</v>
+        <v>38</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9503,16 +9428,16 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>60</v>
@@ -9521,10 +9446,10 @@
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>
@@ -9532,42 +9457,44 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>126</v>
+        <v>371</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>127</v>
+        <v>372</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
       </c>
@@ -9615,7 +9542,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>128</v>
+        <v>368</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9627,38 +9554,38 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>129</v>
+        <v>376</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>38</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9667,19 +9594,23 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>94</v>
+        <v>380</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>95</v>
+        <v>381</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
       </c>
@@ -9715,62 +9646,62 @@
         <v>38</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>38</v>
+        <v>385</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>38</v>
+        <v>386</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>38</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>49</v>
@@ -9779,22 +9710,22 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>167</v>
+        <v>391</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>168</v>
+        <v>392</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>169</v>
+        <v>393</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>170</v>
+        <v>394</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9831,7 +9762,7 @@
         <v>38</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
@@ -9841,45 +9772,45 @@
         <v>113</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>172</v>
+        <v>389</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>174</v>
+        <v>399</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>38</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9895,22 +9826,22 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>169</v>
+        <v>393</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>170</v>
+        <v>394</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -9935,13 +9866,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9959,71 +9890,75 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>172</v>
+        <v>389</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>174</v>
+        <v>399</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>38</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>38</v>
+        <v>405</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>125</v>
+        <v>406</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>126</v>
+        <v>407</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
       </c>
@@ -10071,7 +10006,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>128</v>
+        <v>404</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -10083,61 +10018,63 @@
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>129</v>
+        <v>412</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>38</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>96</v>
+        <v>417</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
       </c>
@@ -10173,19 +10110,19 @@
         <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -10197,38 +10134,38 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>38</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>49</v>
@@ -10240,19 +10177,19 @@
         <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>182</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>184</v>
+        <v>428</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10262,7 +10199,7 @@
         <v>38</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>371</v>
+        <v>38</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>38</v>
@@ -10301,13 +10238,13 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
@@ -10316,24 +10253,24 @@
         <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>188</v>
+        <v>429</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>189</v>
+        <v>422</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>38</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10344,7 +10281,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10353,21 +10290,23 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>125</v>
+        <v>431</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
       </c>
@@ -10415,13 +10354,13 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
@@ -10433,10 +10372,10 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>196</v>
+        <v>436</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10444,21 +10383,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>49</v>
@@ -10467,20 +10406,22 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>202</v>
+        <v>443</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10529,13 +10470,13 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>204</v>
+        <v>437</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
@@ -10547,10 +10488,10 @@
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>205</v>
+        <v>444</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>206</v>
+        <v>445</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10558,10 +10499,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10572,30 +10513,30 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>125</v>
+        <v>447</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>209</v>
+        <v>448</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10643,13 +10584,13 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>212</v>
+        <v>446</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
@@ -10661,10 +10602,10 @@
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>214</v>
+        <v>451</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>38</v>
@@ -10672,21 +10613,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>38</v>
+        <v>453</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -10698,19 +10639,17 @@
         <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>217</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>221</v>
+        <v>457</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10759,13 +10698,13 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>222</v>
+        <v>452</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
@@ -10777,10 +10716,10 @@
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>223</v>
+        <v>458</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>224</v>
+        <v>445</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
@@ -10788,14 +10727,12 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>38</v>
       </c>
@@ -10807,7 +10744,7 @@
         <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -10816,20 +10753,16 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>382</v>
+        <v>126</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>38</v>
       </c>
@@ -10853,13 +10786,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -10877,28 +10810,28 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>38</v>
@@ -10906,10 +10839,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10920,7 +10853,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10932,15 +10865,17 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -10989,19 +10924,19 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
@@ -11010,7 +10945,7 @@
         <v>38</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>38</v>
@@ -11018,10 +10953,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11038,24 +10973,26 @@
         <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
       </c>
@@ -11091,19 +11028,19 @@
         <v>38</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>134</v>
+        <v>462</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
@@ -11132,10 +11069,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>370</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11143,34 +11080,34 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>182</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>183</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>184</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>185</v>
+        <v>467</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>38</v>
@@ -11180,7 +11117,7 @@
         <v>38</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>38</v>
@@ -11219,7 +11156,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>187</v>
+        <v>463</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
@@ -11237,10 +11174,10 @@
         <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>189</v>
+        <v>468</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>38</v>
@@ -11248,10 +11185,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>389</v>
+        <v>469</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11259,7 +11196,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>48</v>
@@ -11274,17 +11211,15 @@
         <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>125</v>
+        <v>470</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>192</v>
+        <v>471</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11333,10 +11268,10 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>195</v>
+        <v>469</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>48</v>
@@ -11351,10 +11286,10 @@
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>38</v>
@@ -11362,14 +11297,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11385,20 +11320,20 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>202</v>
+        <v>477</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11447,7 +11382,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>204</v>
+        <v>473</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -11465,10 +11400,10 @@
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>205</v>
+        <v>478</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>206</v>
+        <v>479</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>38</v>
@@ -11476,10 +11411,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>377</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11490,30 +11425,30 @@
         <v>36</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>209</v>
+        <v>481</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>38</v>
       </c>
@@ -11537,13 +11472,13 @@
         <v>38</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>38</v>
+        <v>483</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>38</v>
+        <v>484</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>38</v>
@@ -11561,16 +11496,16 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>212</v>
+        <v>480</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>60</v>
@@ -11579,10 +11514,10 @@
         <v>38</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>38</v>
@@ -11590,10 +11525,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>392</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>379</v>
+        <v>485</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11604,7 +11539,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>38</v>
@@ -11613,22 +11548,22 @@
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>218</v>
+        <v>487</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>219</v>
+        <v>488</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>220</v>
+        <v>489</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>221</v>
+        <v>490</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
@@ -11677,13 +11612,13 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>222</v>
+        <v>485</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>38</v>
@@ -11695,2317 +11630,17 @@
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>223</v>
+        <v>478</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>224</v>
+        <v>491</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AC89" s="2"/>
-      <c r="AD89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="D90" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN105" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN105">
+  <autoFilter ref="A1:AN85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14015,7 +11650,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
